--- a/Running projects/Manto Outlet Dolmen Mall Lahore/Running Bill No 1 - Manto DML.xlsx
+++ b/Running projects/Manto Outlet Dolmen Mall Lahore/Running Bill No 1 - Manto DML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Manto Outlet Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5728D141-686F-4A4E-965B-9C7383B557AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A18069-05D0-4C82-824D-BEF7282EC2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6270" yWindow="6270" windowWidth="15330" windowHeight="10890" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="15" r:id="rId1"/>
@@ -1423,7 +1423,7 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -2099,42 +2099,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="2" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2149,51 +2113,9 @@
     <xf numFmtId="168" fontId="19" fillId="0" borderId="37" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="29" fillId="4" borderId="50" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="29" fillId="4" borderId="51" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="29" fillId="4" borderId="52" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="4" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="4" borderId="29" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="4" borderId="57" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="4" borderId="58" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="31" fillId="4" borderId="59" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2215,36 +2137,6 @@
     <xf numFmtId="3" fontId="31" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="40" fontId="31" fillId="4" borderId="64" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2263,19 +2155,9 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="68" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2296,9 +2178,6 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="2" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2306,7 +2185,152 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="4" borderId="50" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="4" borderId="51" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="29" fillId="4" borderId="52" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="29" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="57" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="58" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="59" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="31" fillId="4" borderId="64" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="25" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="26" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="32" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="66" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="47" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="66" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="67" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2353,14 +2377,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>96391</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>496441</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>10499</xdr:rowOff>
     </xdr:to>
@@ -2385,7 +2409,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467475" y="0"/>
+          <a:off x="8696325" y="0"/>
           <a:ext cx="8173591" cy="6982799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2687,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09615392-5BAB-4C1E-BE1D-F388A795BEA0}">
   <dimension ref="A3:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2711,12 +2735,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="241" t="s">
+      <c r="A7" s="273" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="241"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
+      <c r="B7" s="273"/>
+      <c r="C7" s="273"/>
+      <c r="D7" s="273"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="171"/>
@@ -2749,7 +2773,7 @@
       </c>
       <c r="D11" s="183">
         <f>HVAC!L24</f>
-        <v>0</v>
+        <v>700263</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -2770,7 +2794,7 @@
       </c>
       <c r="D13" s="183">
         <f>Fire!L32</f>
-        <v>0</v>
+        <v>966121.29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -2786,14 +2810,14 @@
       <c r="D15" s="183"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="242" t="s">
+      <c r="A16" s="274" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="243"/>
+      <c r="B16" s="275"/>
       <c r="C16" s="186"/>
       <c r="D16" s="187">
         <f>SUM(D10:D15)</f>
-        <v>0</v>
+        <v>1666384.29</v>
       </c>
     </row>
   </sheetData>
@@ -2815,8 +2839,8 @@
   </sheetPr>
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
@@ -2827,7 +2851,10 @@
     <col min="4" max="4" width="6.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="45" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="3" customWidth="1"/>
-    <col min="7" max="11" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="3" customWidth="1"/>
     <col min="13" max="14" width="8.85546875" style="26"/>
     <col min="15" max="16" width="19.7109375" style="26" customWidth="1"/>
@@ -2963,77 +2990,77 @@
       </c>
       <c r="R5" s="77"/>
     </row>
-    <row r="6" spans="1:28" s="265" customFormat="1" ht="18.75">
-      <c r="A6" s="288" t="s">
+    <row r="6" spans="1:28" s="247" customFormat="1" ht="18.75">
+      <c r="A6" s="276" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="289"/>
-      <c r="C6" s="290" t="s">
+      <c r="B6" s="277"/>
+      <c r="C6" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="262" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="291" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="264"/>
-    </row>
-    <row r="7" spans="1:28" s="265" customFormat="1" ht="15.75">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="269" t="s">
+      <c r="I6" s="292"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="292"/>
+      <c r="L6" s="293"/>
+    </row>
+    <row r="7" spans="1:28" s="247" customFormat="1" ht="15.75">
+      <c r="A7" s="278"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="294" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="270"/>
-      <c r="J7" s="271" t="s">
+      <c r="I7" s="295"/>
+      <c r="J7" s="296" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="272"/>
-      <c r="L7" s="273" t="s">
+      <c r="K7" s="297"/>
+      <c r="L7" s="298" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="265" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="284"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="287"/>
-      <c r="D8" s="274" t="s">
+    <row r="8" spans="1:28" s="247" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="280"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="275" t="s">
+      <c r="E8" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="276" t="s">
+      <c r="F8" s="250" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="277" t="s">
+      <c r="G8" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="278" t="s">
+      <c r="H8" s="252" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="277" t="s">
+      <c r="I8" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="279" t="s">
+      <c r="J8" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="280" t="s">
+      <c r="K8" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="281"/>
+      <c r="L8" s="299"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="34.9" customHeight="1">
       <c r="A9" s="48"/>
@@ -3045,10 +3072,10 @@
       <c r="E9" s="52"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="303"/>
-      <c r="J9" s="303"/>
-      <c r="K9" s="303"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="263"/>
       <c r="L9" s="97"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
@@ -3067,7 +3094,7 @@
       <c r="A10" s="22">
         <v>1</v>
       </c>
-      <c r="B10" s="310"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="69" t="s">
         <v>10</v>
       </c>
@@ -3083,22 +3110,24 @@
       <c r="G10" s="120">
         <v>72</v>
       </c>
-      <c r="H10" s="308"/>
-      <c r="I10" s="308">
+      <c r="H10" s="312">
+        <v>555</v>
+      </c>
+      <c r="I10" s="268">
         <f>H10*F10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="308">
+        <v>274725</v>
+      </c>
+      <c r="J10" s="312">
         <f>H10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="308">
+        <v>555</v>
+      </c>
+      <c r="K10" s="268">
         <f>J10*G10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="309">
+        <v>39960</v>
+      </c>
+      <c r="L10" s="269">
         <f>K10+I10</f>
-        <v>0</v>
+        <v>314685</v>
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
@@ -3106,11 +3135,11 @@
         <v>80</v>
       </c>
       <c r="P10" s="26">
-        <f>O10*10%</f>
+        <f t="shared" ref="P10:P23" si="0">O10*10%</f>
         <v>8</v>
       </c>
       <c r="Q10" s="3">
-        <f>O10-P10</f>
+        <f t="shared" ref="Q10:Q23" si="1">O10-P10</f>
         <v>72</v>
       </c>
       <c r="R10" s="79"/>
@@ -3126,7 +3155,7 @@
       <c r="A11" s="22">
         <v>2</v>
       </c>
-      <c r="B11" s="310"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="40" t="s">
         <v>22</v>
       </c>
@@ -3142,22 +3171,24 @@
       <c r="G11" s="120">
         <v>54</v>
       </c>
-      <c r="H11" s="308"/>
-      <c r="I11" s="308">
+      <c r="H11" s="312">
+        <v>555</v>
+      </c>
+      <c r="I11" s="268">
         <f>H11*F11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="308">
+        <v>99900</v>
+      </c>
+      <c r="J11" s="312">
         <f>H11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="308">
+        <v>555</v>
+      </c>
+      <c r="K11" s="268">
         <f>J11*G11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="309">
+        <v>29970</v>
+      </c>
+      <c r="L11" s="269">
         <f>K11+I11</f>
-        <v>0</v>
+        <v>129870</v>
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
@@ -3165,11 +3196,11 @@
         <v>60</v>
       </c>
       <c r="P11" s="26">
-        <f>O11*10%</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Q11" s="3">
-        <f>O11-P11</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="R11" s="79"/>
@@ -3202,22 +3233,24 @@
       <c r="G12" s="120">
         <v>54</v>
       </c>
-      <c r="H12" s="308"/>
-      <c r="I12" s="308">
+      <c r="H12" s="312">
+        <v>52</v>
+      </c>
+      <c r="I12" s="268">
         <f>H12*F12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="308">
+        <v>30420</v>
+      </c>
+      <c r="J12" s="312">
         <f>H12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="308">
+        <v>52</v>
+      </c>
+      <c r="K12" s="268">
         <f>J12*G12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="309">
+        <v>2808</v>
+      </c>
+      <c r="L12" s="269">
         <f>K12+I12</f>
-        <v>0</v>
+        <v>33228</v>
       </c>
       <c r="M12" s="92"/>
       <c r="N12" s="92"/>
@@ -3225,11 +3258,11 @@
         <v>60</v>
       </c>
       <c r="P12" s="26">
-        <f>O12*10%</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Q12" s="3">
-        <f>O12-P12</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="R12" s="94"/>
@@ -3247,20 +3280,20 @@
       <c r="E13" s="30"/>
       <c r="F13" s="29"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="305"/>
-      <c r="I13" s="305"/>
-      <c r="J13" s="305"/>
-      <c r="K13" s="305"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="265"/>
       <c r="L13" s="98"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26">
-        <f>O13*10%</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <f>O13-P13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R13" s="74"/>
@@ -3278,20 +3311,20 @@
       <c r="E14" s="102"/>
       <c r="F14" s="103"/>
       <c r="G14" s="103"/>
-      <c r="H14" s="306"/>
-      <c r="I14" s="306"/>
-      <c r="J14" s="306"/>
-      <c r="K14" s="306"/>
+      <c r="H14" s="314"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="314"/>
+      <c r="K14" s="266"/>
       <c r="L14" s="104"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
       <c r="P14" s="26">
-        <f>O14*10%</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <f>O14-P14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R14" s="80"/>
@@ -3316,22 +3349,24 @@
       <c r="G15" s="120">
         <v>630</v>
       </c>
-      <c r="H15" s="308"/>
-      <c r="I15" s="308">
-        <f t="shared" ref="I15:I17" si="0">H15*F15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="308">
+      <c r="H15" s="312">
+        <v>3</v>
+      </c>
+      <c r="I15" s="268">
+        <f t="shared" ref="I15:I17" si="2">H15*F15</f>
+        <v>20250</v>
+      </c>
+      <c r="J15" s="312">
         <f>H15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="308">
-        <f t="shared" ref="K15:K17" si="1">J15*G15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="309">
-        <f t="shared" ref="L15:L17" si="2">K15+I15</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K15" s="268">
+        <f t="shared" ref="K15:K17" si="3">J15*G15</f>
+        <v>1890</v>
+      </c>
+      <c r="L15" s="269">
+        <f t="shared" ref="L15:L17" si="4">K15+I15</f>
+        <v>22140</v>
       </c>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -3339,11 +3374,11 @@
         <v>700</v>
       </c>
       <c r="P15" s="26">
-        <f>O15*10%</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="Q15" s="3">
-        <f>O15-P15</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="R15" s="80"/>
@@ -3368,22 +3403,24 @@
       <c r="G16" s="120">
         <v>630</v>
       </c>
-      <c r="H16" s="308"/>
-      <c r="I16" s="308">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="308">
+      <c r="H16" s="312">
+        <v>1</v>
+      </c>
+      <c r="I16" s="268">
+        <f t="shared" si="2"/>
+        <v>7200</v>
+      </c>
+      <c r="J16" s="312">
         <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="308">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="309">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K16" s="268">
+        <f t="shared" si="3"/>
+        <v>630</v>
+      </c>
+      <c r="L16" s="269">
+        <f t="shared" si="4"/>
+        <v>7830</v>
       </c>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -3391,11 +3428,11 @@
         <v>700</v>
       </c>
       <c r="P16" s="26">
-        <f>O16*10%</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="Q16" s="3">
-        <f>O16-P16</f>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="R16" s="80"/>
@@ -3418,22 +3455,24 @@
       <c r="G17" s="120">
         <v>720</v>
       </c>
-      <c r="H17" s="308"/>
-      <c r="I17" s="308">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="308">
+      <c r="H17" s="312">
+        <v>9</v>
+      </c>
+      <c r="I17" s="268">
+        <f t="shared" si="2"/>
+        <v>76950</v>
+      </c>
+      <c r="J17" s="312">
         <f>H17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="308">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="309">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K17" s="268">
+        <f t="shared" si="3"/>
+        <v>6480</v>
+      </c>
+      <c r="L17" s="269">
+        <f t="shared" si="4"/>
+        <v>83430</v>
       </c>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -3441,11 +3480,11 @@
         <v>800</v>
       </c>
       <c r="P17" s="26">
-        <f>O17*10%</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="Q17" s="3">
-        <f>O17-P17</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="R17" s="80"/>
@@ -3464,20 +3503,20 @@
       <c r="G18" s="120">
         <v>0</v>
       </c>
-      <c r="H18" s="304"/>
-      <c r="I18" s="304"/>
-      <c r="J18" s="304"/>
-      <c r="K18" s="304"/>
+      <c r="H18" s="315"/>
+      <c r="I18" s="264"/>
+      <c r="J18" s="315"/>
+      <c r="K18" s="264"/>
       <c r="L18" s="121"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43"/>
       <c r="P18" s="26">
-        <f>O18*10%</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <f>O18-P18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="80"/>
@@ -3500,22 +3539,24 @@
       <c r="G19" s="120">
         <v>720</v>
       </c>
-      <c r="H19" s="308"/>
-      <c r="I19" s="308">
+      <c r="H19" s="312">
+        <v>2</v>
+      </c>
+      <c r="I19" s="268">
         <f>H19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="308">
+        <v>13500</v>
+      </c>
+      <c r="J19" s="312">
         <f>H19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="308">
+        <v>2</v>
+      </c>
+      <c r="K19" s="268">
         <f>J19*G19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="309">
+        <v>1440</v>
+      </c>
+      <c r="L19" s="269">
         <f>K19+I19</f>
-        <v>0</v>
+        <v>14940</v>
       </c>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -3523,11 +3564,11 @@
         <v>800</v>
       </c>
       <c r="P19" s="26">
-        <f>O19*10%</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="Q19" s="3">
-        <f>O19-P19</f>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="R19" s="80"/>
@@ -3553,22 +3594,24 @@
       <c r="G20" s="120">
         <v>9</v>
       </c>
-      <c r="H20" s="308"/>
-      <c r="I20" s="308">
+      <c r="H20" s="312">
+        <v>492</v>
+      </c>
+      <c r="I20" s="268">
         <f>H20*F20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="308">
+        <v>17712</v>
+      </c>
+      <c r="J20" s="312">
         <f>H20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="308">
+        <v>492</v>
+      </c>
+      <c r="K20" s="268">
         <f>J20*G20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="309">
+        <v>4428</v>
+      </c>
+      <c r="L20" s="269">
         <f>K20+I20</f>
-        <v>0</v>
+        <v>22140</v>
       </c>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -3576,11 +3619,11 @@
         <v>10</v>
       </c>
       <c r="P20" s="26">
-        <f>O20*10%</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Q20" s="3">
-        <f>O20-P20</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="R20" s="80"/>
@@ -3600,28 +3643,30 @@
       <c r="E21" s="119">
         <v>1</v>
       </c>
-      <c r="F21" s="311">
+      <c r="F21" s="270">
         <v>13500</v>
       </c>
-      <c r="G21" s="311">
+      <c r="G21" s="270">
         <v>13500</v>
       </c>
-      <c r="H21" s="312"/>
-      <c r="I21" s="312">
+      <c r="H21" s="316">
+        <v>1</v>
+      </c>
+      <c r="I21" s="271">
         <f>H21*F21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="312">
+        <v>13500</v>
+      </c>
+      <c r="J21" s="316">
         <f>H21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="312">
+        <v>1</v>
+      </c>
+      <c r="K21" s="271">
         <f>J21*G21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="313">
+        <v>13500</v>
+      </c>
+      <c r="L21" s="272">
         <f>K21+I21</f>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
@@ -3629,11 +3674,11 @@
         <v>15000</v>
       </c>
       <c r="P21" s="26">
-        <f>O21*10%</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="Q21" s="3">
-        <f>O21-P21</f>
+        <f t="shared" si="1"/>
         <v>13500</v>
       </c>
       <c r="R21" s="79"/>
@@ -3666,22 +3711,24 @@
       <c r="G22" s="120">
         <v>18000</v>
       </c>
-      <c r="H22" s="308"/>
-      <c r="I22" s="308">
+      <c r="H22" s="312">
+        <v>1</v>
+      </c>
+      <c r="I22" s="268">
         <f>H22*F22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="308">
+        <v>9000</v>
+      </c>
+      <c r="J22" s="312">
         <f>H22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="308">
+        <v>1</v>
+      </c>
+      <c r="K22" s="268">
         <f>J22*G22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="309">
+        <v>18000</v>
+      </c>
+      <c r="L22" s="269">
         <f>K22+I22</f>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
@@ -3689,11 +3736,11 @@
         <v>20000</v>
       </c>
       <c r="P22" s="26">
-        <f>O22*10%</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="Q22" s="3">
-        <f>O22-P22</f>
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="R22" s="79"/>
@@ -3707,7 +3754,7 @@
     </row>
     <row r="23" spans="1:28" s="3" customFormat="1" ht="66.599999999999994" customHeight="1" thickBot="1">
       <c r="A23" s="100">
-        <f t="shared" ref="A23" si="3">A22+1</f>
+        <f t="shared" ref="A23" si="5">A22+1</f>
         <v>8</v>
       </c>
       <c r="B23" s="107"/>
@@ -3726,22 +3773,24 @@
       <c r="G23" s="120">
         <v>9000</v>
       </c>
-      <c r="H23" s="308"/>
-      <c r="I23" s="308">
+      <c r="H23" s="312">
+        <v>1</v>
+      </c>
+      <c r="I23" s="268">
         <f>H23*F23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="308">
+        <v>9000</v>
+      </c>
+      <c r="J23" s="312">
         <f>H23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="308">
+        <v>1</v>
+      </c>
+      <c r="K23" s="268">
         <f>J23*G23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="309">
+        <v>9000</v>
+      </c>
+      <c r="L23" s="269">
         <f>K23+I23</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -3749,11 +3798,11 @@
         <v>10000</v>
       </c>
       <c r="P23" s="26">
-        <f>O23*10%</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="Q23" s="3">
-        <f>O23-P23</f>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="R23" s="81"/>
@@ -3768,26 +3817,26 @@
     <row r="24" spans="1:28" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A24" s="112"/>
       <c r="B24" s="113"/>
-      <c r="C24" s="246" t="s">
+      <c r="C24" s="302" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="247"/>
-      <c r="E24" s="248"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="304"/>
       <c r="F24" s="114"/>
       <c r="G24" s="114"/>
-      <c r="H24" s="307"/>
+      <c r="H24" s="267"/>
       <c r="I24" s="115">
         <f>SUM(I9:I23)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="307"/>
+        <v>572157</v>
+      </c>
+      <c r="J24" s="267"/>
       <c r="K24" s="115">
         <f>SUM(K9:K23)</f>
-        <v>0</v>
+        <v>128106</v>
       </c>
       <c r="L24" s="115">
         <f>SUM(L9:L23)</f>
-        <v>0</v>
+        <v>700263</v>
       </c>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
@@ -3841,10 +3890,10 @@
       <c r="A26" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="244" t="s">
+      <c r="B26" s="300" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="244"/>
+      <c r="C26" s="300"/>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
       <c r="F26" s="70"/>
@@ -3871,10 +3920,10 @@
       <c r="A27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="245" t="s">
+      <c r="B27" s="301" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="245"/>
+      <c r="C27" s="301"/>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
       <c r="F27" s="72"/>
@@ -3909,6 +3958,9 @@
     <sortCondition ref="B18:B24"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:G7"/>
@@ -3916,9 +3968,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3934,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7F82CF-CDCD-45D9-A3D7-16D1857E3721}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15"/>
@@ -4675,77 +4724,77 @@
       <c r="P5" s="58"/>
       <c r="Q5" s="58"/>
     </row>
-    <row r="6" spans="1:17" s="265" customFormat="1" ht="18.75">
-      <c r="A6" s="288" t="s">
+    <row r="6" spans="1:17" s="247" customFormat="1" ht="18.75">
+      <c r="A6" s="276" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="289"/>
-      <c r="C6" s="290" t="s">
+      <c r="B6" s="277"/>
+      <c r="C6" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="285" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="262" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="291" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="264"/>
-    </row>
-    <row r="7" spans="1:17" s="265" customFormat="1" ht="15.75">
-      <c r="A7" s="282"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="269" t="s">
+      <c r="I6" s="292"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="292"/>
+      <c r="L6" s="293"/>
+    </row>
+    <row r="7" spans="1:17" s="247" customFormat="1" ht="15.75">
+      <c r="A7" s="278"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="294" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="270"/>
-      <c r="J7" s="271" t="s">
+      <c r="I7" s="295"/>
+      <c r="J7" s="296" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="272"/>
-      <c r="L7" s="273" t="s">
+      <c r="K7" s="297"/>
+      <c r="L7" s="298" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="265" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="284"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="287"/>
-      <c r="D8" s="274" t="s">
+    <row r="8" spans="1:17" s="247" customFormat="1" ht="32.25" thickBot="1">
+      <c r="A8" s="280"/>
+      <c r="B8" s="281"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="275" t="s">
+      <c r="E8" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="276" t="s">
+      <c r="F8" s="250" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="277" t="s">
+      <c r="G8" s="251" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="278" t="s">
+      <c r="H8" s="252" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="277" t="s">
+      <c r="I8" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="279" t="s">
+      <c r="J8" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="280" t="s">
+      <c r="K8" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="281"/>
+      <c r="L8" s="299"/>
     </row>
     <row r="9" spans="1:17" ht="21.75" customHeight="1">
       <c r="A9" s="143"/>
@@ -4757,10 +4806,10 @@
       <c r="E9" s="147"/>
       <c r="F9" s="147"/>
       <c r="G9" s="147"/>
-      <c r="H9" s="253"/>
-      <c r="I9" s="253"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="253"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="241"/>
       <c r="L9" s="148"/>
       <c r="Q9" s="11"/>
     </row>
@@ -4774,10 +4823,10 @@
       <c r="E10" s="192"/>
       <c r="F10" s="192"/>
       <c r="G10" s="192"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
       <c r="L10" s="193"/>
       <c r="Q10" s="3"/>
     </row>
@@ -4793,9 +4842,9 @@
       <c r="E11" s="196"/>
       <c r="F11" s="197"/>
       <c r="G11" s="197"/>
-      <c r="H11" s="198"/>
+      <c r="H11" s="317"/>
       <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
+      <c r="J11" s="317"/>
       <c r="K11" s="198"/>
       <c r="L11" s="199"/>
       <c r="N11" s="150"/>
@@ -4821,32 +4870,34 @@
       <c r="G12" s="204">
         <v>180</v>
       </c>
-      <c r="H12" s="205"/>
+      <c r="H12" s="318">
+        <v>254.7</v>
+      </c>
       <c r="I12" s="205">
         <f>H12*F12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="205">
-        <f>H12</f>
-        <v>0</v>
+        <v>163899.44999999998</v>
+      </c>
+      <c r="J12" s="318">
+        <f t="shared" ref="J12:J17" si="0">H12</f>
+        <v>254.7</v>
       </c>
       <c r="K12" s="205">
         <f>J12*G12</f>
-        <v>0</v>
+        <v>45846</v>
       </c>
       <c r="L12" s="206">
         <f>K12+I12</f>
-        <v>0</v>
+        <v>209745.44999999998</v>
       </c>
       <c r="O12" s="26">
         <v>200</v>
       </c>
       <c r="P12" s="26">
-        <f t="shared" ref="P12:P31" si="0">O12*10%</f>
+        <f t="shared" ref="P12:P31" si="1">O12*10%</f>
         <v>20</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" ref="Q12:Q31" si="1">O12-P12</f>
+        <f t="shared" ref="Q12:Q31" si="2">O12-P12</f>
         <v>180</v>
       </c>
     </row>
@@ -4870,32 +4921,34 @@
       <c r="G13" s="204">
         <v>225</v>
       </c>
-      <c r="H13" s="205"/>
+      <c r="H13" s="318">
+        <v>48.7</v>
+      </c>
       <c r="I13" s="205">
-        <f t="shared" ref="I13:I17" si="2">H13*F13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="205">
-        <f>H13</f>
-        <v>0</v>
+        <f t="shared" ref="I13:I17" si="3">H13*F13</f>
+        <v>39885.300000000003</v>
+      </c>
+      <c r="J13" s="318">
+        <f t="shared" si="0"/>
+        <v>48.7</v>
       </c>
       <c r="K13" s="205">
-        <f t="shared" ref="K13:K17" si="3">J13*G13</f>
-        <v>0</v>
+        <f t="shared" ref="K13:K17" si="4">J13*G13</f>
+        <v>10957.5</v>
       </c>
       <c r="L13" s="206">
-        <f t="shared" ref="L13:L17" si="4">K13+I13</f>
-        <v>0</v>
+        <f t="shared" ref="L13:L17" si="5">K13+I13</f>
+        <v>50842.8</v>
       </c>
       <c r="O13" s="92">
         <v>250</v>
       </c>
       <c r="P13" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
     </row>
@@ -4919,32 +4972,32 @@
       <c r="G14" s="204">
         <v>270</v>
       </c>
-      <c r="H14" s="205"/>
+      <c r="H14" s="318"/>
       <c r="I14" s="205">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="205">
-        <f>H14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="205">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="206">
+      <c r="J14" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="L14" s="206">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O14" s="26">
         <v>300</v>
       </c>
       <c r="P14" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
     </row>
@@ -4968,32 +5021,34 @@
       <c r="G15" s="204">
         <v>315</v>
       </c>
-      <c r="H15" s="205"/>
+      <c r="H15" s="318">
+        <v>12.33</v>
+      </c>
       <c r="I15" s="205">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="205">
-        <f>H15</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>14980.95</v>
+      </c>
+      <c r="J15" s="318">
+        <f t="shared" si="0"/>
+        <v>12.33</v>
       </c>
       <c r="K15" s="205">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3883.95</v>
       </c>
       <c r="L15" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>18864.900000000001</v>
       </c>
       <c r="O15" s="43">
         <v>350</v>
       </c>
       <c r="P15" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
     </row>
@@ -5017,32 +5072,34 @@
       <c r="G16" s="204">
         <v>360</v>
       </c>
-      <c r="H16" s="205"/>
+      <c r="H16" s="318">
+        <v>22.66</v>
+      </c>
       <c r="I16" s="205">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="205">
-        <f>H16</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>49965.3</v>
+      </c>
+      <c r="J16" s="318">
+        <f t="shared" si="0"/>
+        <v>22.66</v>
       </c>
       <c r="K16" s="205">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8157.6</v>
       </c>
       <c r="L16" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>58122.9</v>
       </c>
       <c r="O16" s="43">
         <v>400</v>
       </c>
       <c r="P16" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
     </row>
@@ -5066,32 +5123,34 @@
       <c r="G17" s="204">
         <v>450</v>
       </c>
-      <c r="H17" s="205"/>
+      <c r="H17" s="318">
+        <v>34.32</v>
+      </c>
       <c r="I17" s="205">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="205">
-        <f>H17</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>92046.24</v>
+      </c>
+      <c r="J17" s="318">
+        <f t="shared" si="0"/>
+        <v>34.32</v>
       </c>
       <c r="K17" s="205">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>15444</v>
       </c>
       <c r="L17" s="206">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>107490.24000000001</v>
       </c>
       <c r="O17" s="43">
         <v>500</v>
       </c>
       <c r="P17" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
     </row>
@@ -5112,18 +5171,18 @@
       <c r="G18" s="211">
         <v>0</v>
       </c>
-      <c r="H18" s="255"/>
-      <c r="I18" s="255"/>
-      <c r="J18" s="255"/>
-      <c r="K18" s="255"/>
+      <c r="H18" s="319"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="319"/>
+      <c r="K18" s="243"/>
       <c r="L18" s="212"/>
       <c r="O18" s="43"/>
       <c r="P18" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R18" s="138"/>
@@ -5148,32 +5207,34 @@
       <c r="G19" s="204">
         <v>540</v>
       </c>
-      <c r="H19" s="205"/>
+      <c r="H19" s="318">
+        <v>3</v>
+      </c>
       <c r="I19" s="205">
-        <f t="shared" ref="I19:I22" si="5">H19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="205">
+        <f t="shared" ref="I19:I22" si="6">H19*F19</f>
+        <v>8775</v>
+      </c>
+      <c r="J19" s="318">
         <f>H19</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="205">
-        <f t="shared" ref="K19:K22" si="6">J19*G19</f>
-        <v>0</v>
+        <f t="shared" ref="K19:K22" si="7">J19*G19</f>
+        <v>1620</v>
       </c>
       <c r="L19" s="206">
-        <f t="shared" ref="L19:L22" si="7">K19+I19</f>
-        <v>0</v>
+        <f t="shared" ref="L19:L22" si="8">K19+I19</f>
+        <v>10395</v>
       </c>
       <c r="O19" s="43">
         <v>600</v>
       </c>
       <c r="P19" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
@@ -5197,32 +5258,34 @@
       <c r="G20" s="204">
         <v>540</v>
       </c>
-      <c r="H20" s="205"/>
+      <c r="H20" s="318">
+        <v>21</v>
+      </c>
       <c r="I20" s="205">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="205">
+        <f t="shared" si="6"/>
+        <v>61425</v>
+      </c>
+      <c r="J20" s="318">
         <f>H20</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K20" s="205">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>11340</v>
       </c>
       <c r="L20" s="206">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>72765</v>
       </c>
       <c r="O20" s="43">
         <v>600</v>
       </c>
       <c r="P20" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
@@ -5246,32 +5309,34 @@
       <c r="G21" s="204">
         <v>630</v>
       </c>
-      <c r="H21" s="205"/>
+      <c r="H21" s="318">
+        <v>21</v>
+      </c>
       <c r="I21" s="205">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="205">
+        <f t="shared" si="6"/>
+        <v>141750</v>
+      </c>
+      <c r="J21" s="318">
         <f>H21</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K21" s="205">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>13230</v>
       </c>
       <c r="L21" s="206">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>154980</v>
       </c>
       <c r="O21" s="43">
         <v>700</v>
       </c>
       <c r="P21" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>630</v>
       </c>
     </row>
@@ -5295,32 +5360,34 @@
       <c r="G22" s="204">
         <v>630</v>
       </c>
-      <c r="H22" s="205"/>
+      <c r="H22" s="318">
+        <v>3</v>
+      </c>
       <c r="I22" s="205">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="205">
+        <f t="shared" si="6"/>
+        <v>20250</v>
+      </c>
+      <c r="J22" s="318">
         <f>H22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="205">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1890</v>
       </c>
       <c r="L22" s="206">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>22140</v>
       </c>
       <c r="O22" s="26">
         <v>700</v>
       </c>
       <c r="P22" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>630</v>
       </c>
     </row>
@@ -5341,18 +5408,18 @@
       <c r="G23" s="221">
         <v>0</v>
       </c>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="256"/>
+      <c r="H23" s="320"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="320"/>
+      <c r="K23" s="244"/>
       <c r="L23" s="222"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5377,32 +5444,34 @@
       <c r="G24" s="204">
         <v>3600</v>
       </c>
-      <c r="H24" s="205"/>
+      <c r="H24" s="318">
+        <v>1</v>
+      </c>
       <c r="I24" s="205">
-        <f t="shared" ref="I24" si="8">H24*F24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="205">
+        <f t="shared" ref="I24" si="9">H24*F24</f>
+        <v>78300</v>
+      </c>
+      <c r="J24" s="318">
         <f>H24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="205">
-        <f t="shared" ref="K24" si="9">J24*G24</f>
-        <v>0</v>
+        <f t="shared" ref="K24" si="10">J24*G24</f>
+        <v>3600</v>
       </c>
       <c r="L24" s="206">
-        <f t="shared" ref="L24" si="10">K24+I24</f>
-        <v>0</v>
+        <f t="shared" ref="L24" si="11">K24+I24</f>
+        <v>81900</v>
       </c>
       <c r="O24" s="26">
         <v>4000</v>
       </c>
       <c r="P24" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
     </row>
@@ -5423,18 +5492,18 @@
       <c r="G25" s="211">
         <v>0</v>
       </c>
-      <c r="H25" s="257"/>
-      <c r="I25" s="257"/>
-      <c r="J25" s="257"/>
-      <c r="K25" s="257"/>
+      <c r="H25" s="321"/>
+      <c r="I25" s="245"/>
+      <c r="J25" s="321"/>
+      <c r="K25" s="245"/>
       <c r="L25" s="199"/>
       <c r="O25" s="42"/>
       <c r="P25" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5459,32 +5528,34 @@
       <c r="G26" s="204">
         <v>900</v>
       </c>
-      <c r="H26" s="205"/>
+      <c r="H26" s="318">
+        <v>1</v>
+      </c>
       <c r="I26" s="205">
-        <f t="shared" ref="I26:I31" si="11">H26*F26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="205">
-        <f>H26</f>
-        <v>0</v>
+        <f t="shared" ref="I26:I31" si="12">H26*F26</f>
+        <v>22950</v>
+      </c>
+      <c r="J26" s="318">
+        <f t="shared" ref="J26:J31" si="13">H26</f>
+        <v>1</v>
       </c>
       <c r="K26" s="205">
-        <f t="shared" ref="K26:K31" si="12">J26*G26</f>
-        <v>0</v>
+        <f t="shared" ref="K26:K31" si="14">J26*G26</f>
+        <v>900</v>
       </c>
       <c r="L26" s="206">
-        <f t="shared" ref="L26:L31" si="13">K26+I26</f>
-        <v>0</v>
+        <f t="shared" ref="L26:L31" si="15">K26+I26</f>
+        <v>23850</v>
       </c>
       <c r="O26" s="42">
         <v>1000</v>
       </c>
       <c r="P26" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
     </row>
@@ -5503,38 +5574,40 @@
       <c r="E27" s="231">
         <v>1</v>
       </c>
-      <c r="F27" s="291">
+      <c r="F27" s="255">
         <v>14625</v>
       </c>
-      <c r="G27" s="291">
+      <c r="G27" s="255">
         <v>900</v>
       </c>
-      <c r="H27" s="292"/>
-      <c r="I27" s="292">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="314">
-        <f>H27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="292">
+      <c r="H27" s="322">
+        <v>1</v>
+      </c>
+      <c r="I27" s="256">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="293">
+        <v>14625</v>
+      </c>
+      <c r="J27" s="324">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K27" s="256">
+        <f t="shared" si="14"/>
+        <v>900</v>
+      </c>
+      <c r="L27" s="257">
+        <f t="shared" si="15"/>
+        <v>15525</v>
       </c>
       <c r="O27" s="42">
         <v>1000</v>
       </c>
       <c r="P27" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
     </row>
@@ -5553,38 +5626,40 @@
       <c r="E28" s="235">
         <v>1</v>
       </c>
-      <c r="F28" s="294">
+      <c r="F28" s="258">
         <v>9000</v>
       </c>
-      <c r="G28" s="294">
+      <c r="G28" s="258">
         <v>13500</v>
       </c>
-      <c r="H28" s="295"/>
-      <c r="I28" s="295">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="205">
-        <f>H28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="295">
+      <c r="H28" s="323">
+        <v>1</v>
+      </c>
+      <c r="I28" s="259">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="296">
+        <v>9000</v>
+      </c>
+      <c r="J28" s="318">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K28" s="259">
+        <f t="shared" si="14"/>
+        <v>13500</v>
+      </c>
+      <c r="L28" s="260">
+        <f t="shared" si="15"/>
+        <v>22500</v>
       </c>
       <c r="O28" s="42">
         <v>15000</v>
       </c>
       <c r="P28" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13500</v>
       </c>
     </row>
@@ -5609,32 +5684,34 @@
       <c r="G29" s="204">
         <v>27000</v>
       </c>
-      <c r="H29" s="205"/>
+      <c r="H29" s="318">
+        <v>1</v>
+      </c>
       <c r="I29" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="205">
-        <f>H29</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>31500</v>
+      </c>
+      <c r="J29" s="318">
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="K29" s="205">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>27000</v>
       </c>
       <c r="L29" s="206">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>58500</v>
       </c>
       <c r="O29" s="26">
         <v>30000</v>
       </c>
       <c r="P29" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -5659,32 +5736,34 @@
       <c r="G30" s="204">
         <v>18000</v>
       </c>
-      <c r="H30" s="205"/>
+      <c r="H30" s="318">
+        <v>1</v>
+      </c>
       <c r="I30" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="205">
-        <f>H30</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>9000</v>
+      </c>
+      <c r="J30" s="318">
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="K30" s="205">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>18000</v>
       </c>
       <c r="L30" s="206">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>27000</v>
       </c>
       <c r="O30" s="26">
         <v>20000</v>
       </c>
       <c r="P30" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18000</v>
       </c>
     </row>
@@ -5709,32 +5788,34 @@
       <c r="G31" s="204">
         <v>22500</v>
       </c>
-      <c r="H31" s="205"/>
+      <c r="H31" s="318">
+        <v>1</v>
+      </c>
       <c r="I31" s="205">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="205">
-        <f>H31</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>9000</v>
+      </c>
+      <c r="J31" s="318">
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="K31" s="205">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>22500</v>
       </c>
       <c r="L31" s="206">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>31500</v>
       </c>
       <c r="O31" s="26">
         <v>25000</v>
       </c>
       <c r="P31" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22500</v>
       </c>
     </row>
@@ -5748,19 +5829,19 @@
       <c r="E32" s="161"/>
       <c r="F32" s="162"/>
       <c r="G32" s="163"/>
-      <c r="H32" s="258"/>
+      <c r="H32" s="246"/>
       <c r="I32" s="164">
         <f>SUM(I9:I31)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="258"/>
+        <v>767352.24</v>
+      </c>
+      <c r="J32" s="246"/>
       <c r="K32" s="164">
         <f>SUM(K9:K31)</f>
-        <v>0</v>
+        <v>198769.05</v>
       </c>
       <c r="L32" s="164">
         <f>SUM(L9:L31)</f>
-        <v>0</v>
+        <v>966121.29</v>
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="26"/>
@@ -5768,82 +5849,72 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="165"/>
-      <c r="B33" s="297"/>
-      <c r="C33" s="298"/>
-      <c r="D33" s="297"/>
-      <c r="E33" s="297"/>
-      <c r="F33" s="297"/>
-      <c r="G33" s="297"/>
-      <c r="H33" s="297"/>
-      <c r="I33" s="297"/>
-      <c r="J33" s="297"/>
-      <c r="K33" s="297"/>
       <c r="L33" s="166"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="249" t="s">
+      <c r="A34" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="299"/>
-      <c r="C34" s="300"/>
-      <c r="D34" s="300"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="301"/>
-      <c r="G34" s="301"/>
-      <c r="H34" s="301"/>
-      <c r="I34" s="301"/>
-      <c r="J34" s="301"/>
-      <c r="K34" s="301"/>
+      <c r="B34" s="306"/>
+      <c r="C34" s="261"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="262"/>
+      <c r="H34" s="262"/>
+      <c r="I34" s="262"/>
+      <c r="J34" s="262"/>
+      <c r="K34" s="262"/>
       <c r="L34" s="167"/>
     </row>
     <row r="35" spans="1:12" ht="28.15" customHeight="1">
       <c r="A35" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="302" t="s">
+      <c r="B35" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="302"/>
-      <c r="D35" s="302"/>
-      <c r="E35" s="302"/>
-      <c r="F35" s="302"/>
-      <c r="G35" s="302"/>
-      <c r="H35" s="302"/>
-      <c r="I35" s="302"/>
-      <c r="J35" s="302"/>
-      <c r="K35" s="302"/>
-      <c r="L35" s="250"/>
+      <c r="C35" s="307"/>
+      <c r="D35" s="307"/>
+      <c r="E35" s="307"/>
+      <c r="F35" s="307"/>
+      <c r="G35" s="307"/>
+      <c r="H35" s="307"/>
+      <c r="I35" s="307"/>
+      <c r="J35" s="307"/>
+      <c r="K35" s="307"/>
+      <c r="L35" s="308"/>
     </row>
     <row r="36" spans="1:12" ht="27.6" customHeight="1" thickBot="1">
       <c r="A36" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="251" t="s">
+      <c r="B36" s="309" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="251"/>
-      <c r="D36" s="251"/>
-      <c r="E36" s="251"/>
-      <c r="F36" s="251"/>
-      <c r="G36" s="251"/>
-      <c r="H36" s="251"/>
-      <c r="I36" s="251"/>
-      <c r="J36" s="251"/>
-      <c r="K36" s="251"/>
-      <c r="L36" s="252"/>
+      <c r="C36" s="309"/>
+      <c r="D36" s="309"/>
+      <c r="E36" s="309"/>
+      <c r="F36" s="309"/>
+      <c r="G36" s="309"/>
+      <c r="H36" s="309"/>
+      <c r="I36" s="309"/>
+      <c r="J36" s="309"/>
+      <c r="K36" s="309"/>
+      <c r="L36" s="310"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="B36:L36"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:G7"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="B36:L36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.33" footer="0.33"/>

--- a/Running projects/Manto Outlet Dolmen Mall Lahore/Running Bill No 1 - Manto DML.xlsx
+++ b/Running projects/Manto Outlet Dolmen Mall Lahore/Running Bill No 1 - Manto DML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Manto Outlet Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A18069-05D0-4C82-824D-BEF7282EC2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90421DD-3AB6-459C-B0E8-213823E5D4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6270" yWindow="6270" windowWidth="15330" windowHeight="10890" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="15" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!$1:$8</definedName>
     <definedName name="work">HVAC!$A$9:$L$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2185,6 +2185,40 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="66" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="47" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="66" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="67" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2194,51 +2228,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="40" fontId="29" fillId="4" borderId="50" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2281,6 +2270,51 @@
     <xf numFmtId="37" fontId="4" fillId="2" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2298,40 +2332,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="32" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="66" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="47" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="66" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="67" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2371,55 +2371,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>496441</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18028B34-B507-A3F5-3309-8B507FAA6F0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8696325" y="0"/>
-          <a:ext cx="8173591" cy="6982799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2712,7 +2663,7 @@
   <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2735,12 +2686,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="273" t="s">
+      <c r="A7" s="287" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="273"/>
-      <c r="C7" s="273"/>
-      <c r="D7" s="273"/>
+      <c r="B7" s="287"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="287"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="171"/>
@@ -2810,10 +2761,10 @@
       <c r="D15" s="183"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="274" t="s">
+      <c r="A16" s="288" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="275"/>
+      <c r="B16" s="289"/>
       <c r="C16" s="186"/>
       <c r="D16" s="187">
         <f>SUM(D10:D15)</f>
@@ -2828,7 +2779,6 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2840,7 +2790,7 @@
   <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="O1" sqref="O1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
@@ -2991,51 +2941,51 @@
       <c r="R5" s="77"/>
     </row>
     <row r="6" spans="1:28" s="247" customFormat="1" ht="18.75">
-      <c r="A6" s="276" t="s">
+      <c r="A6" s="304" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="282" t="s">
+      <c r="B6" s="305"/>
+      <c r="C6" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="285" t="s">
+      <c r="D6" s="313" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="291" t="s">
+      <c r="E6" s="314"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="290" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="292"/>
-      <c r="J6" s="292"/>
-      <c r="K6" s="292"/>
-      <c r="L6" s="293"/>
+      <c r="I6" s="291"/>
+      <c r="J6" s="291"/>
+      <c r="K6" s="291"/>
+      <c r="L6" s="292"/>
     </row>
     <row r="7" spans="1:28" s="247" customFormat="1" ht="15.75">
-      <c r="A7" s="278"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="288"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="294" t="s">
+      <c r="A7" s="306"/>
+      <c r="B7" s="307"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="318"/>
+      <c r="H7" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="295"/>
-      <c r="J7" s="296" t="s">
+      <c r="I7" s="294"/>
+      <c r="J7" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="297"/>
-      <c r="L7" s="298" t="s">
+      <c r="K7" s="296"/>
+      <c r="L7" s="297" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="247" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="280"/>
-      <c r="B8" s="281"/>
-      <c r="C8" s="284"/>
+      <c r="A8" s="308"/>
+      <c r="B8" s="309"/>
+      <c r="C8" s="312"/>
       <c r="D8" s="248" t="s">
         <v>41</v>
       </c>
@@ -3060,7 +3010,7 @@
       <c r="K8" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="299"/>
+      <c r="L8" s="298"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="34.9" customHeight="1">
       <c r="A9" s="48"/>
@@ -3072,7 +3022,7 @@
       <c r="E9" s="52"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="311"/>
+      <c r="H9" s="273"/>
       <c r="I9" s="263"/>
       <c r="J9" s="263"/>
       <c r="K9" s="263"/>
@@ -3110,14 +3060,14 @@
       <c r="G10" s="120">
         <v>72</v>
       </c>
-      <c r="H10" s="312">
+      <c r="H10" s="274">
         <v>555</v>
       </c>
       <c r="I10" s="268">
         <f>H10*F10</f>
         <v>274725</v>
       </c>
-      <c r="J10" s="312">
+      <c r="J10" s="274">
         <f>H10</f>
         <v>555</v>
       </c>
@@ -3131,17 +3081,8 @@
       </c>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="26">
-        <v>80</v>
-      </c>
-      <c r="P10" s="26">
-        <f t="shared" ref="P10:P23" si="0">O10*10%</f>
-        <v>8</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" ref="Q10:Q23" si="1">O10-P10</f>
-        <v>72</v>
-      </c>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
       <c r="R10" s="79"/>
       <c r="V10" s="9"/>
       <c r="W10" s="17"/>
@@ -3171,14 +3112,14 @@
       <c r="G11" s="120">
         <v>54</v>
       </c>
-      <c r="H11" s="312">
+      <c r="H11" s="274">
         <v>555</v>
       </c>
       <c r="I11" s="268">
         <f>H11*F11</f>
         <v>99900</v>
       </c>
-      <c r="J11" s="312">
+      <c r="J11" s="274">
         <f>H11</f>
         <v>555</v>
       </c>
@@ -3192,17 +3133,8 @@
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="26">
-        <v>60</v>
-      </c>
-      <c r="P11" s="26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
       <c r="R11" s="79"/>
       <c r="V11" s="9"/>
       <c r="W11" s="17"/>
@@ -3233,14 +3165,14 @@
       <c r="G12" s="120">
         <v>54</v>
       </c>
-      <c r="H12" s="312">
+      <c r="H12" s="274">
         <v>52</v>
       </c>
       <c r="I12" s="268">
         <f>H12*F12</f>
         <v>30420</v>
       </c>
-      <c r="J12" s="312">
+      <c r="J12" s="274">
         <f>H12</f>
         <v>52</v>
       </c>
@@ -3254,17 +3186,9 @@
       </c>
       <c r="M12" s="92"/>
       <c r="N12" s="92"/>
-      <c r="O12" s="92">
-        <v>60</v>
-      </c>
-      <c r="P12" s="26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
+      <c r="O12" s="92"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="94"/>
     </row>
     <row r="13" spans="1:28" s="25" customFormat="1" ht="64.150000000000006" customHeight="1">
@@ -3280,22 +3204,16 @@
       <c r="E13" s="30"/>
       <c r="F13" s="29"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="313"/>
+      <c r="H13" s="275"/>
       <c r="I13" s="265"/>
-      <c r="J13" s="313"/>
+      <c r="J13" s="275"/>
       <c r="K13" s="265"/>
       <c r="L13" s="98"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="74"/>
     </row>
     <row r="14" spans="1:28" s="41" customFormat="1" ht="23.45" customHeight="1">
@@ -3311,22 +3229,16 @@
       <c r="E14" s="102"/>
       <c r="F14" s="103"/>
       <c r="G14" s="103"/>
-      <c r="H14" s="314"/>
+      <c r="H14" s="276"/>
       <c r="I14" s="266"/>
-      <c r="J14" s="314"/>
+      <c r="J14" s="276"/>
       <c r="K14" s="266"/>
       <c r="L14" s="104"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
-      <c r="P14" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="80"/>
     </row>
     <row r="15" spans="1:28" s="41" customFormat="1" ht="23.45" customHeight="1">
@@ -3349,38 +3261,30 @@
       <c r="G15" s="120">
         <v>630</v>
       </c>
-      <c r="H15" s="312">
+      <c r="H15" s="274">
         <v>3</v>
       </c>
       <c r="I15" s="268">
-        <f t="shared" ref="I15:I17" si="2">H15*F15</f>
+        <f t="shared" ref="I15:I17" si="0">H15*F15</f>
         <v>20250</v>
       </c>
-      <c r="J15" s="312">
+      <c r="J15" s="274">
         <f>H15</f>
         <v>3</v>
       </c>
       <c r="K15" s="268">
-        <f t="shared" ref="K15:K17" si="3">J15*G15</f>
+        <f t="shared" ref="K15:K17" si="1">J15*G15</f>
         <v>1890</v>
       </c>
       <c r="L15" s="269">
-        <f t="shared" ref="L15:L17" si="4">K15+I15</f>
+        <f t="shared" ref="L15:L17" si="2">K15+I15</f>
         <v>22140</v>
       </c>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
-      <c r="O15" s="43">
-        <v>700</v>
-      </c>
-      <c r="P15" s="26">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
+      <c r="O15" s="43"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="80"/>
     </row>
     <row r="16" spans="1:28" s="41" customFormat="1" ht="23.45" customHeight="1">
@@ -3403,38 +3307,30 @@
       <c r="G16" s="120">
         <v>630</v>
       </c>
-      <c r="H16" s="312">
+      <c r="H16" s="274">
         <v>1</v>
       </c>
       <c r="I16" s="268">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-      <c r="J16" s="312">
+      <c r="J16" s="274">
         <f>H16</f>
         <v>1</v>
       </c>
       <c r="K16" s="268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>630</v>
       </c>
       <c r="L16" s="269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7830</v>
       </c>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
-      <c r="O16" s="43">
-        <v>700</v>
-      </c>
-      <c r="P16" s="26">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="1"/>
-        <v>630</v>
-      </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="80"/>
     </row>
     <row r="17" spans="1:28" s="41" customFormat="1" ht="23.45" customHeight="1">
@@ -3455,38 +3351,30 @@
       <c r="G17" s="120">
         <v>720</v>
       </c>
-      <c r="H17" s="312">
+      <c r="H17" s="274">
         <v>9</v>
       </c>
       <c r="I17" s="268">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>76950</v>
       </c>
-      <c r="J17" s="312">
+      <c r="J17" s="274">
         <f>H17</f>
         <v>9</v>
       </c>
       <c r="K17" s="268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6480</v>
       </c>
       <c r="L17" s="269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>83430</v>
       </c>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
-      <c r="O17" s="43">
-        <v>800</v>
-      </c>
-      <c r="P17" s="26">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
+      <c r="O17" s="43"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="80"/>
     </row>
     <row r="18" spans="1:28" s="41" customFormat="1" ht="23.45" customHeight="1">
@@ -3503,22 +3391,16 @@
       <c r="G18" s="120">
         <v>0</v>
       </c>
-      <c r="H18" s="315"/>
+      <c r="H18" s="277"/>
       <c r="I18" s="264"/>
-      <c r="J18" s="315"/>
+      <c r="J18" s="277"/>
       <c r="K18" s="264"/>
       <c r="L18" s="121"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43"/>
-      <c r="P18" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="80"/>
     </row>
     <row r="19" spans="1:28" s="41" customFormat="1" ht="23.45" customHeight="1">
@@ -3539,14 +3421,14 @@
       <c r="G19" s="120">
         <v>720</v>
       </c>
-      <c r="H19" s="312">
+      <c r="H19" s="274">
         <v>2</v>
       </c>
       <c r="I19" s="268">
         <f>H19*F19</f>
         <v>13500</v>
       </c>
-      <c r="J19" s="312">
+      <c r="J19" s="274">
         <f>H19</f>
         <v>2</v>
       </c>
@@ -3560,17 +3442,9 @@
       </c>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
-      <c r="O19" s="43">
-        <v>800</v>
-      </c>
-      <c r="P19" s="26">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
+      <c r="O19" s="43"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="80"/>
     </row>
     <row r="20" spans="1:28" s="41" customFormat="1" ht="50.45" customHeight="1">
@@ -3594,14 +3468,14 @@
       <c r="G20" s="120">
         <v>9</v>
       </c>
-      <c r="H20" s="312">
+      <c r="H20" s="274">
         <v>492</v>
       </c>
       <c r="I20" s="268">
         <f>H20*F20</f>
         <v>17712</v>
       </c>
-      <c r="J20" s="312">
+      <c r="J20" s="274">
         <f>H20</f>
         <v>492</v>
       </c>
@@ -3615,17 +3489,9 @@
       </c>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
-      <c r="O20" s="43">
-        <v>10</v>
-      </c>
-      <c r="P20" s="26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="80"/>
     </row>
     <row r="21" spans="1:28" s="3" customFormat="1" ht="65.45" customHeight="1" thickBot="1">
@@ -3649,14 +3515,14 @@
       <c r="G21" s="270">
         <v>13500</v>
       </c>
-      <c r="H21" s="316">
+      <c r="H21" s="278">
         <v>1</v>
       </c>
       <c r="I21" s="271">
         <f>H21*F21</f>
         <v>13500</v>
       </c>
-      <c r="J21" s="316">
+      <c r="J21" s="278">
         <f>H21</f>
         <v>1</v>
       </c>
@@ -3670,17 +3536,8 @@
       </c>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="26">
-        <v>15000</v>
-      </c>
-      <c r="P21" s="26">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="1"/>
-        <v>13500</v>
-      </c>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
       <c r="R21" s="79"/>
       <c r="V21" s="9"/>
       <c r="W21" s="17"/>
@@ -3711,14 +3568,14 @@
       <c r="G22" s="120">
         <v>18000</v>
       </c>
-      <c r="H22" s="312">
+      <c r="H22" s="274">
         <v>1</v>
       </c>
       <c r="I22" s="268">
         <f>H22*F22</f>
         <v>9000</v>
       </c>
-      <c r="J22" s="312">
+      <c r="J22" s="274">
         <f>H22</f>
         <v>1</v>
       </c>
@@ -3732,17 +3589,8 @@
       </c>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
-      <c r="O22" s="26">
-        <v>20000</v>
-      </c>
-      <c r="P22" s="26">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="1"/>
-        <v>18000</v>
-      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
       <c r="R22" s="79"/>
       <c r="V22" s="9"/>
       <c r="W22" s="17"/>
@@ -3754,7 +3602,7 @@
     </row>
     <row r="23" spans="1:28" s="3" customFormat="1" ht="66.599999999999994" customHeight="1" thickBot="1">
       <c r="A23" s="100">
-        <f t="shared" ref="A23" si="5">A22+1</f>
+        <f t="shared" ref="A23" si="3">A22+1</f>
         <v>8</v>
       </c>
       <c r="B23" s="107"/>
@@ -3773,14 +3621,14 @@
       <c r="G23" s="120">
         <v>9000</v>
       </c>
-      <c r="H23" s="312">
+      <c r="H23" s="274">
         <v>1</v>
       </c>
       <c r="I23" s="268">
         <f>H23*F23</f>
         <v>9000</v>
       </c>
-      <c r="J23" s="312">
+      <c r="J23" s="274">
         <f>H23</f>
         <v>1</v>
       </c>
@@ -3794,17 +3642,8 @@
       </c>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
-      <c r="O23" s="26">
-        <v>10000</v>
-      </c>
-      <c r="P23" s="26">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="1"/>
-        <v>9000</v>
-      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
       <c r="R23" s="81"/>
       <c r="V23" s="9"/>
       <c r="W23" s="17"/>
@@ -3817,11 +3656,11 @@
     <row r="24" spans="1:28" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A24" s="112"/>
       <c r="B24" s="113"/>
-      <c r="C24" s="302" t="s">
+      <c r="C24" s="301" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="303"/>
-      <c r="E24" s="304"/>
+      <c r="D24" s="302"/>
+      <c r="E24" s="303"/>
       <c r="F24" s="114"/>
       <c r="G24" s="114"/>
       <c r="H24" s="267"/>
@@ -3841,14 +3680,8 @@
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
-      <c r="P24" s="26">
-        <f>N24*10%</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <f>N24-P24</f>
-        <v>0</v>
-      </c>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="99"/>
       <c r="V24" s="15"/>
       <c r="W24" s="19"/>
@@ -3890,10 +3723,10 @@
       <c r="A26" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="300" t="s">
+      <c r="B26" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="300"/>
+      <c r="C26" s="299"/>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
       <c r="F26" s="70"/>
@@ -3920,10 +3753,10 @@
       <c r="A27" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="301" t="s">
+      <c r="B27" s="300" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="301"/>
+      <c r="C27" s="300"/>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
       <c r="F27" s="72"/>
@@ -3958,7 +3791,6 @@
     <sortCondition ref="B18:B24"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="A6:B8"/>
@@ -3968,6 +3800,7 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3983,8 +3816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7F82CF-CDCD-45D9-A3D7-16D1857E3721}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15"/>
@@ -4725,51 +4558,51 @@
       <c r="Q5" s="58"/>
     </row>
     <row r="6" spans="1:17" s="247" customFormat="1" ht="18.75">
-      <c r="A6" s="276" t="s">
+      <c r="A6" s="304" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="282" t="s">
+      <c r="B6" s="305"/>
+      <c r="C6" s="310" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="285" t="s">
+      <c r="D6" s="313" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="291" t="s">
+      <c r="E6" s="314"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="290" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="292"/>
-      <c r="J6" s="292"/>
-      <c r="K6" s="292"/>
-      <c r="L6" s="293"/>
+      <c r="I6" s="291"/>
+      <c r="J6" s="291"/>
+      <c r="K6" s="291"/>
+      <c r="L6" s="292"/>
     </row>
     <row r="7" spans="1:17" s="247" customFormat="1" ht="15.75">
-      <c r="A7" s="278"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="288"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="294" t="s">
+      <c r="A7" s="306"/>
+      <c r="B7" s="307"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="318"/>
+      <c r="H7" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="295"/>
-      <c r="J7" s="296" t="s">
+      <c r="I7" s="294"/>
+      <c r="J7" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="297"/>
-      <c r="L7" s="298" t="s">
+      <c r="K7" s="296"/>
+      <c r="L7" s="297" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="247" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A8" s="280"/>
-      <c r="B8" s="281"/>
-      <c r="C8" s="284"/>
+      <c r="A8" s="308"/>
+      <c r="B8" s="309"/>
+      <c r="C8" s="312"/>
       <c r="D8" s="248" t="s">
         <v>41</v>
       </c>
@@ -4794,7 +4627,7 @@
       <c r="K8" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="299"/>
+      <c r="L8" s="298"/>
     </row>
     <row r="9" spans="1:17" ht="21.75" customHeight="1">
       <c r="A9" s="143"/>
@@ -4842,9 +4675,9 @@
       <c r="E11" s="196"/>
       <c r="F11" s="197"/>
       <c r="G11" s="197"/>
-      <c r="H11" s="317"/>
+      <c r="H11" s="279"/>
       <c r="I11" s="198"/>
-      <c r="J11" s="317"/>
+      <c r="J11" s="279"/>
       <c r="K11" s="198"/>
       <c r="L11" s="199"/>
       <c r="N11" s="150"/>
@@ -4870,14 +4703,14 @@
       <c r="G12" s="204">
         <v>180</v>
       </c>
-      <c r="H12" s="318">
+      <c r="H12" s="280">
         <v>254.7</v>
       </c>
       <c r="I12" s="205">
         <f>H12*F12</f>
         <v>163899.44999999998</v>
       </c>
-      <c r="J12" s="318">
+      <c r="J12" s="280">
         <f t="shared" ref="J12:J17" si="0">H12</f>
         <v>254.7</v>
       </c>
@@ -4889,17 +4722,9 @@
         <f>K12+I12</f>
         <v>209745.44999999998</v>
       </c>
-      <c r="O12" s="26">
-        <v>200</v>
-      </c>
-      <c r="P12" s="26">
-        <f t="shared" ref="P12:P31" si="1">O12*10%</f>
-        <v>20</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" ref="Q12:Q31" si="2">O12-P12</f>
-        <v>180</v>
-      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="151"/>
@@ -4921,36 +4746,28 @@
       <c r="G13" s="204">
         <v>225</v>
       </c>
-      <c r="H13" s="318">
+      <c r="H13" s="280">
         <v>48.7</v>
       </c>
       <c r="I13" s="205">
-        <f t="shared" ref="I13:I17" si="3">H13*F13</f>
+        <f t="shared" ref="I13:I17" si="1">H13*F13</f>
         <v>39885.300000000003</v>
       </c>
-      <c r="J13" s="318">
+      <c r="J13" s="280">
         <f t="shared" si="0"/>
         <v>48.7</v>
       </c>
       <c r="K13" s="205">
-        <f t="shared" ref="K13:K17" si="4">J13*G13</f>
+        <f t="shared" ref="K13:K17" si="2">J13*G13</f>
         <v>10957.5</v>
       </c>
       <c r="L13" s="206">
-        <f t="shared" ref="L13:L17" si="5">K13+I13</f>
+        <f t="shared" ref="L13:L17" si="3">K13+I13</f>
         <v>50842.8</v>
       </c>
-      <c r="O13" s="92">
-        <v>250</v>
-      </c>
-      <c r="P13" s="26">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
+      <c r="O13" s="92"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="151"/>
@@ -4972,34 +4789,26 @@
       <c r="G14" s="204">
         <v>270</v>
       </c>
-      <c r="H14" s="318"/>
+      <c r="H14" s="280"/>
       <c r="I14" s="205">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="280">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="318">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="205">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="206">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="26">
-        <v>300</v>
-      </c>
-      <c r="P14" s="26">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="151"/>
@@ -5021,36 +4830,28 @@
       <c r="G15" s="204">
         <v>315</v>
       </c>
-      <c r="H15" s="318">
+      <c r="H15" s="280">
         <v>12.33</v>
       </c>
       <c r="I15" s="205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14980.95</v>
       </c>
-      <c r="J15" s="318">
+      <c r="J15" s="280">
         <f t="shared" si="0"/>
         <v>12.33</v>
       </c>
       <c r="K15" s="205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3883.95</v>
       </c>
       <c r="L15" s="206">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18864.900000000001</v>
       </c>
-      <c r="O15" s="43">
-        <v>350</v>
-      </c>
-      <c r="P15" s="26">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="2"/>
-        <v>315</v>
-      </c>
+      <c r="O15" s="43"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="151"/>
@@ -5072,36 +4873,28 @@
       <c r="G16" s="204">
         <v>360</v>
       </c>
-      <c r="H16" s="318">
+      <c r="H16" s="280">
         <v>22.66</v>
       </c>
       <c r="I16" s="205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>49965.3</v>
       </c>
-      <c r="J16" s="318">
+      <c r="J16" s="280">
         <f t="shared" si="0"/>
         <v>22.66</v>
       </c>
       <c r="K16" s="205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8157.6</v>
       </c>
       <c r="L16" s="206">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>58122.9</v>
       </c>
-      <c r="O16" s="43">
-        <v>400</v>
-      </c>
-      <c r="P16" s="26">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
+      <c r="O16" s="43"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:18" s="152" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="151"/>
@@ -5123,36 +4916,28 @@
       <c r="G17" s="204">
         <v>450</v>
       </c>
-      <c r="H17" s="318">
+      <c r="H17" s="280">
         <v>34.32</v>
       </c>
       <c r="I17" s="205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>92046.24</v>
       </c>
-      <c r="J17" s="318">
+      <c r="J17" s="280">
         <f t="shared" si="0"/>
         <v>34.32</v>
       </c>
       <c r="K17" s="205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15444</v>
       </c>
       <c r="L17" s="206">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>107490.24000000001</v>
       </c>
-      <c r="O17" s="43">
-        <v>500</v>
-      </c>
-      <c r="P17" s="26">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
+      <c r="O17" s="43"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:18" s="153" customFormat="1" ht="15.6" customHeight="1">
       <c r="A18" s="149">
@@ -5171,20 +4956,14 @@
       <c r="G18" s="211">
         <v>0</v>
       </c>
-      <c r="H18" s="319"/>
+      <c r="H18" s="281"/>
       <c r="I18" s="243"/>
-      <c r="J18" s="319"/>
+      <c r="J18" s="281"/>
       <c r="K18" s="243"/>
       <c r="L18" s="212"/>
       <c r="O18" s="43"/>
-      <c r="P18" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="138"/>
     </row>
     <row r="19" spans="1:18" s="153" customFormat="1" ht="16.5" customHeight="1">
@@ -5207,36 +4986,28 @@
       <c r="G19" s="204">
         <v>540</v>
       </c>
-      <c r="H19" s="318">
+      <c r="H19" s="280">
         <v>3</v>
       </c>
       <c r="I19" s="205">
-        <f t="shared" ref="I19:I22" si="6">H19*F19</f>
+        <f t="shared" ref="I19:I22" si="4">H19*F19</f>
         <v>8775</v>
       </c>
-      <c r="J19" s="318">
+      <c r="J19" s="280">
         <f>H19</f>
         <v>3</v>
       </c>
       <c r="K19" s="205">
-        <f t="shared" ref="K19:K22" si="7">J19*G19</f>
+        <f t="shared" ref="K19:K22" si="5">J19*G19</f>
         <v>1620</v>
       </c>
       <c r="L19" s="206">
-        <f t="shared" ref="L19:L22" si="8">K19+I19</f>
+        <f t="shared" ref="L19:L22" si="6">K19+I19</f>
         <v>10395</v>
       </c>
-      <c r="O19" s="43">
-        <v>600</v>
-      </c>
-      <c r="P19" s="26">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
+      <c r="O19" s="43"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:18" s="153" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="154"/>
@@ -5258,36 +5029,28 @@
       <c r="G20" s="204">
         <v>540</v>
       </c>
-      <c r="H20" s="318">
+      <c r="H20" s="280">
         <v>21</v>
       </c>
       <c r="I20" s="205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>61425</v>
       </c>
-      <c r="J20" s="318">
+      <c r="J20" s="280">
         <f>H20</f>
         <v>21</v>
       </c>
       <c r="K20" s="205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>11340</v>
       </c>
       <c r="L20" s="206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>72765</v>
       </c>
-      <c r="O20" s="43">
-        <v>600</v>
-      </c>
-      <c r="P20" s="26">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="Q20" s="3">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:18" s="153" customFormat="1" ht="27.6" customHeight="1">
       <c r="A21" s="154"/>
@@ -5309,36 +5072,28 @@
       <c r="G21" s="204">
         <v>630</v>
       </c>
-      <c r="H21" s="318">
+      <c r="H21" s="280">
         <v>21</v>
       </c>
       <c r="I21" s="205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>141750</v>
       </c>
-      <c r="J21" s="318">
+      <c r="J21" s="280">
         <f>H21</f>
         <v>21</v>
       </c>
       <c r="K21" s="205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>13230</v>
       </c>
       <c r="L21" s="206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>154980</v>
       </c>
-      <c r="O21" s="43">
-        <v>700</v>
-      </c>
-      <c r="P21" s="26">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="2"/>
-        <v>630</v>
-      </c>
+      <c r="O21" s="43"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:18" s="153" customFormat="1" ht="27.6" customHeight="1">
       <c r="A22" s="154"/>
@@ -5360,36 +5115,28 @@
       <c r="G22" s="204">
         <v>630</v>
       </c>
-      <c r="H22" s="318">
+      <c r="H22" s="280">
         <v>3</v>
       </c>
       <c r="I22" s="205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>20250</v>
       </c>
-      <c r="J22" s="318">
+      <c r="J22" s="280">
         <f>H22</f>
         <v>3</v>
       </c>
       <c r="K22" s="205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1890</v>
       </c>
       <c r="L22" s="206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>22140</v>
       </c>
-      <c r="O22" s="26">
-        <v>700</v>
-      </c>
-      <c r="P22" s="26">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="2"/>
-        <v>630</v>
-      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:18" s="153" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="151">
@@ -5408,20 +5155,14 @@
       <c r="G23" s="221">
         <v>0</v>
       </c>
-      <c r="H23" s="320"/>
+      <c r="H23" s="282"/>
       <c r="I23" s="244"/>
-      <c r="J23" s="320"/>
+      <c r="J23" s="282"/>
       <c r="K23" s="244"/>
       <c r="L23" s="222"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:18" s="153" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="154"/>
@@ -5444,36 +5185,28 @@
       <c r="G24" s="204">
         <v>3600</v>
       </c>
-      <c r="H24" s="318">
+      <c r="H24" s="280">
         <v>1</v>
       </c>
       <c r="I24" s="205">
-        <f t="shared" ref="I24" si="9">H24*F24</f>
+        <f t="shared" ref="I24" si="7">H24*F24</f>
         <v>78300</v>
       </c>
-      <c r="J24" s="318">
+      <c r="J24" s="280">
         <f>H24</f>
         <v>1</v>
       </c>
       <c r="K24" s="205">
-        <f t="shared" ref="K24" si="10">J24*G24</f>
+        <f t="shared" ref="K24" si="8">J24*G24</f>
         <v>3600</v>
       </c>
       <c r="L24" s="206">
-        <f t="shared" ref="L24" si="11">K24+I24</f>
+        <f t="shared" ref="L24" si="9">K24+I24</f>
         <v>81900</v>
       </c>
-      <c r="O24" s="26">
-        <v>4000</v>
-      </c>
-      <c r="P24" s="26">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="Q24" s="3">
-        <f t="shared" si="2"/>
-        <v>3600</v>
-      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:18" s="152" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="154">
@@ -5492,20 +5225,14 @@
       <c r="G25" s="211">
         <v>0</v>
       </c>
-      <c r="H25" s="321"/>
+      <c r="H25" s="283"/>
       <c r="I25" s="245"/>
-      <c r="J25" s="321"/>
+      <c r="J25" s="283"/>
       <c r="K25" s="245"/>
       <c r="L25" s="199"/>
       <c r="O25" s="42"/>
-      <c r="P25" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:18" s="152" customFormat="1" ht="20.45" customHeight="1">
       <c r="A26" s="155"/>
@@ -5528,36 +5255,28 @@
       <c r="G26" s="204">
         <v>900</v>
       </c>
-      <c r="H26" s="318">
+      <c r="H26" s="280">
         <v>1</v>
       </c>
       <c r="I26" s="205">
-        <f t="shared" ref="I26:I31" si="12">H26*F26</f>
+        <f t="shared" ref="I26:I31" si="10">H26*F26</f>
         <v>22950</v>
       </c>
-      <c r="J26" s="318">
-        <f t="shared" ref="J26:J31" si="13">H26</f>
+      <c r="J26" s="280">
+        <f t="shared" ref="J26:J31" si="11">H26</f>
         <v>1</v>
       </c>
       <c r="K26" s="205">
-        <f t="shared" ref="K26:K31" si="14">J26*G26</f>
+        <f t="shared" ref="K26:K31" si="12">J26*G26</f>
         <v>900</v>
       </c>
       <c r="L26" s="206">
-        <f t="shared" ref="L26:L31" si="15">K26+I26</f>
+        <f t="shared" ref="L26:L31" si="13">K26+I26</f>
         <v>23850</v>
       </c>
-      <c r="O26" s="42">
-        <v>1000</v>
-      </c>
-      <c r="P26" s="26">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
+      <c r="O26" s="42"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:18" s="152" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A27" s="156"/>
@@ -5580,36 +5299,28 @@
       <c r="G27" s="255">
         <v>900</v>
       </c>
-      <c r="H27" s="322">
+      <c r="H27" s="284">
         <v>1</v>
       </c>
       <c r="I27" s="256">
+        <f t="shared" si="10"/>
+        <v>14625</v>
+      </c>
+      <c r="J27" s="286">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="256">
         <f t="shared" si="12"/>
-        <v>14625</v>
-      </c>
-      <c r="J27" s="324">
+        <v>900</v>
+      </c>
+      <c r="L27" s="257">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="256">
-        <f t="shared" si="14"/>
-        <v>900</v>
-      </c>
-      <c r="L27" s="257">
-        <f t="shared" si="15"/>
         <v>15525</v>
       </c>
-      <c r="O27" s="42">
-        <v>1000</v>
-      </c>
-      <c r="P27" s="26">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
-        <f t="shared" si="2"/>
-        <v>900</v>
-      </c>
+      <c r="O27" s="42"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:18" s="135" customFormat="1" ht="42.75">
       <c r="A28" s="157">
@@ -5632,36 +5343,28 @@
       <c r="G28" s="258">
         <v>13500</v>
       </c>
-      <c r="H28" s="323">
+      <c r="H28" s="285">
         <v>1</v>
       </c>
       <c r="I28" s="259">
+        <f t="shared" si="10"/>
+        <v>9000</v>
+      </c>
+      <c r="J28" s="280">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="259">
         <f t="shared" si="12"/>
-        <v>9000</v>
-      </c>
-      <c r="J28" s="318">
+        <v>13500</v>
+      </c>
+      <c r="L28" s="260">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="259">
-        <f t="shared" si="14"/>
-        <v>13500</v>
-      </c>
-      <c r="L28" s="260">
-        <f t="shared" si="15"/>
         <v>22500</v>
       </c>
-      <c r="O28" s="42">
-        <v>15000</v>
-      </c>
-      <c r="P28" s="26">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="Q28" s="3">
-        <f t="shared" si="2"/>
-        <v>13500</v>
-      </c>
+      <c r="O28" s="42"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:18" s="153" customFormat="1" ht="29.25" customHeight="1">
       <c r="A29" s="158">
@@ -5684,36 +5387,28 @@
       <c r="G29" s="204">
         <v>27000</v>
       </c>
-      <c r="H29" s="318">
+      <c r="H29" s="280">
         <v>1</v>
       </c>
       <c r="I29" s="205">
+        <f t="shared" si="10"/>
+        <v>31500</v>
+      </c>
+      <c r="J29" s="280">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="205">
         <f t="shared" si="12"/>
-        <v>31500</v>
-      </c>
-      <c r="J29" s="318">
+        <v>27000</v>
+      </c>
+      <c r="L29" s="206">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="205">
-        <f t="shared" si="14"/>
-        <v>27000</v>
-      </c>
-      <c r="L29" s="206">
-        <f t="shared" si="15"/>
         <v>58500</v>
       </c>
-      <c r="O29" s="26">
-        <v>30000</v>
-      </c>
-      <c r="P29" s="26">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q29" s="3">
-        <f t="shared" si="2"/>
-        <v>27000</v>
-      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:18" s="153" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="154">
@@ -5736,36 +5431,28 @@
       <c r="G30" s="204">
         <v>18000</v>
       </c>
-      <c r="H30" s="318">
+      <c r="H30" s="280">
         <v>1</v>
       </c>
       <c r="I30" s="205">
+        <f t="shared" si="10"/>
+        <v>9000</v>
+      </c>
+      <c r="J30" s="280">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="205">
         <f t="shared" si="12"/>
-        <v>9000</v>
-      </c>
-      <c r="J30" s="318">
+        <v>18000</v>
+      </c>
+      <c r="L30" s="206">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="205">
-        <f t="shared" si="14"/>
-        <v>18000</v>
-      </c>
-      <c r="L30" s="206">
-        <f t="shared" si="15"/>
         <v>27000</v>
       </c>
-      <c r="O30" s="26">
-        <v>20000</v>
-      </c>
-      <c r="P30" s="26">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="Q30" s="3">
-        <f t="shared" si="2"/>
-        <v>18000</v>
-      </c>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:18" s="135" customFormat="1" ht="31.15" customHeight="1" thickBot="1">
       <c r="A31" s="158">
@@ -5788,36 +5475,28 @@
       <c r="G31" s="204">
         <v>22500</v>
       </c>
-      <c r="H31" s="318">
+      <c r="H31" s="280">
         <v>1</v>
       </c>
       <c r="I31" s="205">
+        <f t="shared" si="10"/>
+        <v>9000</v>
+      </c>
+      <c r="J31" s="280">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="205">
         <f t="shared" si="12"/>
-        <v>9000</v>
-      </c>
-      <c r="J31" s="318">
+        <v>22500</v>
+      </c>
+      <c r="L31" s="206">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="205">
-        <f t="shared" si="14"/>
-        <v>22500</v>
-      </c>
-      <c r="L31" s="206">
-        <f t="shared" si="15"/>
         <v>31500</v>
       </c>
-      <c r="O31" s="26">
-        <v>25000</v>
-      </c>
-      <c r="P31" s="26">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="Q31" s="3">
-        <f t="shared" si="2"/>
-        <v>22500</v>
-      </c>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:18" s="152" customFormat="1" ht="26.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A32" s="159"/>
@@ -5852,10 +5531,10 @@
       <c r="L33" s="166"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="305" t="s">
+      <c r="A34" s="319" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="306"/>
+      <c r="B34" s="320"/>
       <c r="C34" s="261"/>
       <c r="D34" s="261"/>
       <c r="E34" s="261"/>
@@ -5871,37 +5550,37 @@
       <c r="A35" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="307" t="s">
+      <c r="B35" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="307"/>
-      <c r="D35" s="307"/>
-      <c r="E35" s="307"/>
-      <c r="F35" s="307"/>
-      <c r="G35" s="307"/>
-      <c r="H35" s="307"/>
-      <c r="I35" s="307"/>
-      <c r="J35" s="307"/>
-      <c r="K35" s="307"/>
-      <c r="L35" s="308"/>
+      <c r="C35" s="321"/>
+      <c r="D35" s="321"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="321"/>
+      <c r="G35" s="321"/>
+      <c r="H35" s="321"/>
+      <c r="I35" s="321"/>
+      <c r="J35" s="321"/>
+      <c r="K35" s="321"/>
+      <c r="L35" s="322"/>
     </row>
     <row r="36" spans="1:12" ht="27.6" customHeight="1" thickBot="1">
       <c r="A36" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="309" t="s">
+      <c r="B36" s="323" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="309"/>
-      <c r="D36" s="309"/>
-      <c r="E36" s="309"/>
-      <c r="F36" s="309"/>
-      <c r="G36" s="309"/>
-      <c r="H36" s="309"/>
-      <c r="I36" s="309"/>
-      <c r="J36" s="309"/>
-      <c r="K36" s="309"/>
-      <c r="L36" s="310"/>
+      <c r="C36" s="323"/>
+      <c r="D36" s="323"/>
+      <c r="E36" s="323"/>
+      <c r="F36" s="323"/>
+      <c r="G36" s="323"/>
+      <c r="H36" s="323"/>
+      <c r="I36" s="323"/>
+      <c r="J36" s="323"/>
+      <c r="K36" s="323"/>
+      <c r="L36" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="10">
